--- a/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/MobileMaintenance.xlsx
+++ b/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/MobileMaintenance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\LogicTracker\Logictracker\Logictracker\src\Web\Logictracker\Logictracker.Web\ExcelTemplate\Logictracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias Alfano\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,18 +15,19 @@
     <sheet name="Informe" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Informe!$A$9:$H$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Informe!$A$10:$H$10</definedName>
     <definedName name="Base">Informe!$B$6</definedName>
     <definedName name="Distrito">Informe!$B$5</definedName>
-    <definedName name="EN_MOVIMIENTO">Informe!$E$9</definedName>
-    <definedName name="Fecha">Informe!$B$7</definedName>
-    <definedName name="HORAS_PLANTA">Informe!$G$9</definedName>
-    <definedName name="HORAS_TALLER">Informe!$H$9</definedName>
-    <definedName name="KILOMETROS">Informe!$F$9</definedName>
-    <definedName name="PARENTI03">Informe!$B$9</definedName>
-    <definedName name="PARENTI17">Informe!$A$9</definedName>
-    <definedName name="PATENTE">Informe!$C$9</definedName>
-    <definedName name="REFFERENCE">Informe!$D$9</definedName>
+    <definedName name="EN_MOVIMIENTO">Informe!$E$10</definedName>
+    <definedName name="Fecha">Informe!$B$8</definedName>
+    <definedName name="HORAS_PLANTA">Informe!$G$10</definedName>
+    <definedName name="HORAS_TALLER">Informe!$H$10</definedName>
+    <definedName name="KILOMETROS">Informe!$F$10</definedName>
+    <definedName name="PARENTI03">Informe!$B$10</definedName>
+    <definedName name="PARENTI17">Informe!$A$10</definedName>
+    <definedName name="PATENTE">Informe!$C$10</definedName>
+    <definedName name="REFFERENCE">Informe!$D$10</definedName>
+    <definedName name="Tipo_de_Vehículo">Informe!$B$7</definedName>
     <definedName name="Titulo">Informe!$C$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Distrito:</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t>Fecha:</t>
+  </si>
+  <si>
+    <t>Tipo de vehiculo:</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1021,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,58 +1073,63 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:H9"/>
+  <autoFilter ref="A10:H10"/>
   <pageMargins left="0.11811023622047244" right="0.11811023622047244" top="0.11811023622047244" bottom="0.11811023622047244" header="0" footer="0"/>
   <pageSetup scale="24" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
